--- a/1 GESTION (nuevo)/Documentacion/site/content/DocumentosReferencia/Copia de Listado de Impresoras NUEVO.xlsx
+++ b/1 GESTION (nuevo)/Documentacion/site/content/DocumentosReferencia/Copia de Listado de Impresoras NUEVO.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
   <si>
     <t>Nombre Impresora</t>
   </si>
@@ -329,9 +329,6 @@
     <t>192.168.110.90</t>
   </si>
   <si>
-    <t>RECUPERO</t>
-  </si>
-  <si>
     <t>MATFIN</t>
   </si>
   <si>
@@ -339,6 +336,18 @@
   </si>
   <si>
     <t>HP LASERJET  6P</t>
+  </si>
+  <si>
+    <t>INTEGRACION</t>
+  </si>
+  <si>
+    <t>LSINTEGRACION1</t>
+  </si>
+  <si>
+    <t>192.168.120.58</t>
+  </si>
+  <si>
+    <t>LSGRECUPERO1</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -619,11 +628,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -706,9 +741,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,6 +769,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,16 +1087,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D27" sqref="D27"/>
+      <selection pane="topRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="7" bestFit="1" customWidth="1"/>
@@ -1086,7 +1130,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="46" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1097,7 +1141,7 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>43</v>
@@ -1106,16 +1150,16 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37" t="s">
-        <v>104</v>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>46</v>
@@ -1124,7 +1168,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -1135,7 +1179,7 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="36" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="16"/>
@@ -1178,7 +1222,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="46" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -1198,7 +1242,7 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="14" t="s">
         <v>63</v>
       </c>
@@ -1214,7 +1258,7 @@
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="14" t="s">
         <v>64</v>
       </c>
@@ -1232,7 +1276,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="14" t="s">
         <v>66</v>
       </c>
@@ -1248,7 +1292,7 @@
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="14" t="s">
         <v>67</v>
       </c>
@@ -1264,7 +1308,7 @@
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="46" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -1282,7 +1326,7 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="14" t="s">
         <v>70</v>
       </c>
@@ -1298,7 +1342,7 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="46" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -1316,7 +1360,7 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="14" t="s">
         <v>75</v>
       </c>
@@ -1332,7 +1376,7 @@
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="14" t="s">
         <v>76</v>
       </c>
@@ -1348,7 +1392,7 @@
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="14" t="s">
         <v>78</v>
       </c>
@@ -1364,7 +1408,7 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="46" t="s">
         <v>79</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -1382,7 +1426,7 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="14" t="s">
         <v>81</v>
       </c>
@@ -1398,7 +1442,7 @@
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="14" t="s">
         <v>82</v>
       </c>
@@ -1414,7 +1458,7 @@
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="14" t="s">
         <v>83</v>
       </c>
@@ -1430,7 +1474,7 @@
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="18" t="s">
         <v>84</v>
       </c>
@@ -1482,21 +1526,21 @@
       <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="39" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="43" t="s">
         <v>98</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -1505,91 +1549,92 @@
       <c r="C26" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="43"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>80</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45" t="s">
+        <v>102</v>
+      </c>
       <c r="G27" s="26"/>
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="26"/>
+      <c r="A28" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="16"/>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="26"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="16"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="26"/>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C33" s="13">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="9"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A13"/>

--- a/1 GESTION (nuevo)/Documentacion/site/content/DocumentosReferencia/Copia de Listado de Impresoras NUEVO.xlsx
+++ b/1 GESTION (nuevo)/Documentacion/site/content/DocumentosReferencia/Copia de Listado de Impresoras NUEVO.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="109">
   <si>
     <t>Nombre Impresora</t>
   </si>
@@ -266,9 +266,6 @@
     <t>CUENTAS A PAGAR</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>LSDACOS6</t>
   </si>
   <si>
@@ -332,9 +329,6 @@
     <t>MATFIN</t>
   </si>
   <si>
-    <t>Epson LX-300</t>
-  </si>
-  <si>
     <t>HP LASERJET  6P</t>
   </si>
   <si>
@@ -348,6 +342,15 @@
   </si>
   <si>
     <t>LSGRECUPERO1</t>
+  </si>
+  <si>
+    <t>LSDACOS2</t>
+  </si>
+  <si>
+    <t>Epson LX-300+2</t>
+  </si>
+  <si>
+    <t>192.168.50.13</t>
   </si>
 </sst>
 </file>
@@ -658,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -702,18 +705,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,12 +756,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,6 +766,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1087,11 +1075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B29" sqref="B29"/>
+      <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,36 +1089,36 @@
     <col min="3" max="3" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="40" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1141,7 +1129,7 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>43</v>
@@ -1150,16 +1138,16 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36" t="s">
-        <v>103</v>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>46</v>
@@ -1168,7 +1156,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -1179,7 +1167,7 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="32" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="16"/>
@@ -1222,7 +1210,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -1242,7 +1230,7 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="14" t="s">
         <v>63</v>
       </c>
@@ -1258,7 +1246,7 @@
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="14" t="s">
         <v>64</v>
       </c>
@@ -1276,7 +1264,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="14" t="s">
         <v>66</v>
       </c>
@@ -1292,46 +1280,46 @@
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="14" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
-        <v>56</v>
+      <c r="E11" s="32"/>
+      <c r="F11" s="44" t="s">
+        <v>107</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>68</v>
-      </c>
+      <c r="A12" s="40"/>
       <c r="B12" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="B13" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -1342,14 +1330,12 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>73</v>
-      </c>
+      <c r="A14" s="40"/>
       <c r="B14" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -1360,28 +1346,30 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="40" t="s">
+        <v>73</v>
+      </c>
       <c r="B15" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1392,30 +1380,28 @@
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
-        <v>79</v>
-      </c>
+      <c r="A18" s="40"/>
       <c r="B18" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="14"/>
@@ -1426,220 +1412,240 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="B19" s="14" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="14"/>
+        <v>88</v>
+      </c>
+      <c r="D21" s="17"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="18"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="14"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="18"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="G23" s="20"/>
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="B27" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="C27" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="38"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="14" t="s">
+      <c r="C28" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="44" t="s">
         <v>107</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="41" t="s">
+        <v>102</v>
+      </c>
       <c r="B29" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="49" t="s">
-        <v>106</v>
+      <c r="C29" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="31"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="16"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C34" s="13">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="9"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
